--- a/titlePilotStudy/data/TITLEs.xlsx
+++ b/titlePilotStudy/data/TITLEs.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Identifier</t>
   </si>
@@ -99,16 +100,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Slot</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>copiedFromSummary</t>
@@ -237,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,9 +270,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -564,12 +556,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM322"/>
+  <dimension ref="A1:AL322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,17 +569,17 @@
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="20" width="8.88671875" style="1"/>
     <col min="21" max="27" width="8.88671875" style="1" customWidth="1"/>
-    <col min="28" max="29" width="8.88671875" style="1"/>
-    <col min="30" max="30" width="12.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.21875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.88671875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.21875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="8.88671875" style="1"/>
+    <col min="29" max="29" width="12.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.21875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -598,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
@@ -669,72 +661,71 @@
       <c r="AA1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="14" t="s">
         <v>29</v>
       </c>
       <c r="AC1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
@@ -748,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>25</v>
@@ -819,11 +810,8 @@
       <c r="AL2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="E3"/>
       <c r="F3" s="2"/>
@@ -849,7 +837,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -878,7 +866,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -907,7 +895,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -936,7 +924,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -965,7 +953,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -994,7 +982,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1023,7 +1011,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1052,7 +1040,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1081,7 +1069,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1110,7 +1098,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1139,7 +1127,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1168,7 +1156,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1197,7 +1185,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -10101,30 +10089,27 @@
       <c r="AA322" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q322 N1:N322 L1:L322 J1:J241 W3:X322 J277:J322 W1:X1 Z1:Z322 R2:Y2 AA2:AM2">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q322 N1:N322 L1:L322 J1:J241 W3:X322 J277:J322 W1:X1 Z1:Z322 W2:X2 U2 AA2">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y308:Y322 Y1 Y3:Y276">
-      <formula1>"interpunc,word,mixed,none"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+      <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1 S3:S322">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576 AD1:AD1048576 AF1:AF1048576 AH1:AH1048576 AJ1:AJ1048576">
+      <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK1048576 AI1:AI1048576 AG1:AG1048576 AE1:AE1048576 AC1:AC1048576">
+      <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 R1:R1048576 V1:V1048576">
+      <formula1>"def,indef,no,na"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1 T3:T322">
-      <formula1>"one,more,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R322 M1:M322 R1 V1 V3:V322">
-      <formula1>"def,indef,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y277:Y307">
-      <formula1>"interpunc,word,none"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE1048576 AG3:AG1048576 AI3:AI1048576 AK3:AK1048576 AK1 AI1 AG1 AE1 AC1 AC3:AC1048576">
-      <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF1048576 AH3:AH1048576 AJ3:AJ1048576 AL3:AL1048576 AL1 AJ1 AH1 AF1 AD1 AD3:AD1048576">
-      <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576">
+      <formula1>"interpunc,word,mixed,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
